--- a/tune.xlsx
+++ b/tune.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanu\OneDrive\Documents\certificate-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D94D1-4163-46EB-8FA5-0B8CA47BAAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B99650-0887-4A3F-90BB-922E4034CEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA9703A5-FE22-4D50-939D-51BB6B2E4D2E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>SI NO</t>
   </si>
@@ -45,22 +45,404 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>Thanush</t>
-  </si>
-  <si>
-    <t>shettythanush9353@gmail.com</t>
+    <t xml:space="preserve">Ayush </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayeesha Tabassum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaman R Shetty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hriday M </t>
+  </si>
+  <si>
+    <t>Pavan kokrr</t>
+  </si>
+  <si>
+    <t>ANUNANDH KK</t>
+  </si>
+  <si>
+    <t>Muhammed aman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrutika Prakash Naik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanee Ahamed Haris </t>
+  </si>
+  <si>
+    <t>Riyona k</t>
+  </si>
+  <si>
+    <t>Jishnu PM</t>
+  </si>
+  <si>
+    <t>Chandhana.c.ranjith</t>
+  </si>
+  <si>
+    <t>Abdul Hafeel</t>
+  </si>
+  <si>
+    <t>Safrin Farhan</t>
+  </si>
+  <si>
+    <t>AMITH S V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shriraksha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIKHIL BAJANTRI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwitha </t>
+  </si>
+  <si>
+    <t>Vinobha bave A</t>
+  </si>
+  <si>
+    <t>Sriram</t>
+  </si>
+  <si>
+    <t>Vibha M N</t>
+  </si>
+  <si>
+    <t>Vikas gani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THARUN RAI </t>
+  </si>
+  <si>
+    <t>Sinchana S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanika M U </t>
+  </si>
+  <si>
+    <t>Ranjith kumar</t>
+  </si>
+  <si>
+    <t>Karthik y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarun AM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prajwal kulal </t>
+  </si>
+  <si>
+    <t>Manju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G Pavankumar </t>
+  </si>
+  <si>
+    <t>ayushgudigar979@gmail.com</t>
+  </si>
+  <si>
+    <t>ayeshatab37@gmail.com</t>
+  </si>
+  <si>
+    <t>shamanshetty2211@gmail.com</t>
+  </si>
+  <si>
+    <t>hridayshimna000@gmail.com</t>
+  </si>
+  <si>
+    <t>pavankokre85@gmail.com</t>
+  </si>
+  <si>
+    <t>anunand699@gmail.com</t>
+  </si>
+  <si>
+    <t>naikshrutika20@gmail.com</t>
+  </si>
+  <si>
+    <t>haneeharis10@gmail.com</t>
+  </si>
+  <si>
+    <t>riyona02527@gmail.com</t>
+  </si>
+  <si>
+    <t>jishnupm319@gmail.com</t>
+  </si>
+  <si>
+    <t>chaah387@gmail.com</t>
+  </si>
+  <si>
+    <t>abdulhafeel223@gmail.com</t>
+  </si>
+  <si>
+    <t>amithsv11@gmail.com</t>
+  </si>
+  <si>
+    <t>shreerakshagourayya@gmail.com</t>
+  </si>
+  <si>
+    <t>nikhilbajantri86@gmail.com</t>
+  </si>
+  <si>
+    <t>ashwitha463@gmail.com</t>
+  </si>
+  <si>
+    <t>vinuksd11@gmail.com</t>
+  </si>
+  <si>
+    <t>sriramam017@gmail.com</t>
+  </si>
+  <si>
+    <t>vibhamn7@gmail.com</t>
+  </si>
+  <si>
+    <t>tharunrai782@gmail.com</t>
+  </si>
+  <si>
+    <t>ganavi222004@gmail.com</t>
+  </si>
+  <si>
+    <t>prajwalkulal2005@gmail.com</t>
+  </si>
+  <si>
+    <t>gpavankumar730@gmail.com</t>
+  </si>
+  <si>
+    <t>Amanshamnas2@gmail.com</t>
+  </si>
+  <si>
+    <t>Safrinfarhan@icloud.com</t>
+  </si>
+  <si>
+    <t>Vikasvikki73347@gmail.com</t>
+  </si>
+  <si>
+    <t>sinchanasnh6@gmail.com</t>
+  </si>
+  <si>
+    <t>sanikamugowda@gmail.com</t>
+  </si>
+  <si>
+    <t>ranjithsuvarna525@gmail.com</t>
+  </si>
+  <si>
+    <t>karthik2006poojary@gmail.com</t>
+  </si>
+  <si>
+    <t>Tarunam553@gmail.com</t>
+  </si>
+  <si>
+    <t>123344manju@gmail.co.</t>
+  </si>
+  <si>
+    <t>Sangameshwar Anil naik</t>
+  </si>
+  <si>
+    <t>Snehin M P</t>
+  </si>
+  <si>
+    <t>Jithesh k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav s suresh </t>
+  </si>
+  <si>
+    <t>Suhan pinto</t>
+  </si>
+  <si>
+    <t>ARJITH AV</t>
+  </si>
+  <si>
+    <t>Muhammed jaseel</t>
+  </si>
+  <si>
+    <t>Muhammed Rhasil</t>
+  </si>
+  <si>
+    <t>abubakkar fazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yadukrishna </t>
+  </si>
+  <si>
+    <t>Nihal</t>
+  </si>
+  <si>
+    <t>Nayana.k.k</t>
+  </si>
+  <si>
+    <t>Ashika</t>
+  </si>
+  <si>
+    <t>Spoorthi basavaraj patted</t>
+  </si>
+  <si>
+    <t>Mohammed zayed</t>
+  </si>
+  <si>
+    <t>Amrutha K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsh Tomar </t>
+  </si>
+  <si>
+    <t>Shwetha</t>
+  </si>
+  <si>
+    <t>Vinith</t>
+  </si>
+  <si>
+    <t>Tanush</t>
+  </si>
+  <si>
+    <t>Rakshitha</t>
+  </si>
+  <si>
+    <t>Prasanna naik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADHUSUHAN RAI </t>
+  </si>
+  <si>
+    <t>Ganavi M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paurnavi </t>
+  </si>
+  <si>
+    <t>Dhanush</t>
+  </si>
+  <si>
+    <t>Jeevith c v</t>
+  </si>
+  <si>
+    <t>Jagapreeth</t>
+  </si>
+  <si>
+    <t>Renial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandan </t>
+  </si>
+  <si>
+    <t>Chandrashekhar K S</t>
+  </si>
+  <si>
+    <t>sangameshnaik471@gmail.com</t>
+  </si>
+  <si>
+    <t>Snehinm7@gmail.com</t>
+  </si>
+  <si>
+    <t>jitheshkkaikamba@gmail.com</t>
+  </si>
+  <si>
+    <t>abhinavabhipc@gmail.com</t>
+  </si>
+  <si>
+    <t>suhanpinto01@gmail.com</t>
+  </si>
+  <si>
+    <t>avarjith2@gmail.com</t>
+  </si>
+  <si>
+    <t>Dabgamer803@gmail.com</t>
+  </si>
+  <si>
+    <t>rhasilharamaki@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abubakkarfazil705@gmail.com  </t>
+  </si>
+  <si>
+    <t>yadu98593@gmail.com</t>
+  </si>
+  <si>
+    <t>mn838033@gmail.com</t>
+  </si>
+  <si>
+    <t>nayanakk9633@gmail.com</t>
+  </si>
+  <si>
+    <t>ashikaachar0@gmail.com</t>
+  </si>
+  <si>
+    <t>sprthi07@gmail.com</t>
+  </si>
+  <si>
+    <t>mohammedzayed461@gmail.com</t>
+  </si>
+  <si>
+    <t>amruthasuresh1105@gmail.com</t>
+  </si>
+  <si>
+    <t>arshtomar583@gmail.com</t>
+  </si>
+  <si>
+    <t>shwetha23145@gmail.com</t>
+  </si>
+  <si>
+    <t>vinithanchan7@gmail.com</t>
+  </si>
+  <si>
+    <t>balachandranaik18@gmail.com</t>
+  </si>
+  <si>
+    <t>rakshithashetty1309@gmail.com</t>
+  </si>
+  <si>
+    <t>hnrprasanna@gmail.com</t>
+  </si>
+  <si>
+    <t>madhushuhan@gmail.com</t>
+  </si>
+  <si>
+    <t>Paurnavi2005@gmail.com</t>
+  </si>
+  <si>
+    <t>dhanushsalyanm@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvjeevith@gmail.com </t>
+  </si>
+  <si>
+    <t>jagapreeth777@gmail.com</t>
+  </si>
+  <si>
+    <t>louisrenial@gmail.com</t>
+  </si>
+  <si>
+    <t>chandan2914ac@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,15 +454,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -88,21 +482,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1C6E6630-04A0-4B13-9EE9-626CE265CDE3}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Form responses 1-style" pivot="0" count="3" xr9:uid="{5C3FCD2E-2271-4556-91D5-1A4AC46C7BA4}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -411,15 +903,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC5658-DF68-4331-8F6A-DAFAA266E5FC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
     <col min="3" max="3" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,16 +930,687 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DF343830-319D-46EB-918B-9FDF9669509A}"/>
+    <hyperlink ref="C33" r:id="rId1" xr:uid="{D0D1BEF4-2064-4C67-B310-A4CE66AC79E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
